--- a/jpcore-r4/feature/v1.1.0-kohe-medReq/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/feature/v1.1.0-kohe-medReq/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3456" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3819" uniqueCount="627">
   <si>
     <t>Property</t>
   </si>
@@ -510,6 +510,9 @@
 </t>
   </si>
   <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Request.identifier</t>
   </si>
   <si>
@@ -523,6 +526,18 @@
   </si>
   <si>
     <t>ORC-2-Placer Order Number / ORC-3-Filler Order Number</t>
+  </si>
+  <si>
+    <t>@default</t>
+  </si>
+  <si>
+    <t>External ids for this request</t>
+  </si>
+  <si>
+    <t>Identifiers associated with this medication request that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.</t>
+  </si>
+  <si>
+    <t>This is a business identifier, not a resource identifier.</t>
   </si>
   <si>
     <t>rpNumber</t>
@@ -736,6 +751,27 @@
     <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
+    <t>requestIdentifierCommon</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.100495.20.3.11</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
     <t>requestIdentifier</t>
   </si>
   <si>
@@ -745,25 +781,7 @@
     <t>薬剤をオーダする単位としての処方箋に対するID。MedicationRequestは単一の薬剤でインスタンスが作成されるが、それの集合としての処方箋のID。</t>
   </si>
   <si>
-    <t>This is a business identifier, not a resource identifier.</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
     <t>http://jpfhir.jp/fhir/core/IdSystem/resourceInstance-identifier</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>MedicationRequest.status</t>
@@ -967,9 +985,6 @@
   <si>
     <t xml:space="preserve">type:$this}
 </t>
-  </si>
-  <si>
-    <t>closed</t>
   </si>
   <si>
     <t>Request.code</t>
@@ -2279,7 +2294,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN95"/>
+  <dimension ref="A1:AN105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2289,7 +2304,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="69.44921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.16796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.5703125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3665,7 +3680,7 @@
         <v>81</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>152</v>
@@ -3683,19 +3698,19 @@
         <v>100</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13">
@@ -3703,17 +3718,17 @@
         <v>152</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>81</v>
@@ -3728,13 +3743,13 @@
         <v>153</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3799,32 +3814,34 @@
         <v>100</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="C14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>88</v>
@@ -3839,7 +3856,7 @@
         <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>169</v>
@@ -3847,7 +3864,9 @@
       <c r="L14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="M14" s="2"/>
+      <c r="M14" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>81</v>
@@ -3896,50 +3915,50 @@
         <v>81</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>81</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>81</v>
@@ -3951,7 +3970,7 @@
         <v>81</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>174</v>
@@ -3959,9 +3978,7 @@
       <c r="L15" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="M15" t="s" s="2">
-        <v>149</v>
-      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>81</v>
@@ -3998,40 +4015,40 @@
         <v>81</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="AB15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE15" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AC15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AE15" t="s" s="2">
+      <c r="AF15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>81</v>
@@ -4046,26 +4063,26 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>179</v>
@@ -4074,11 +4091,9 @@
         <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>81</v>
       </c>
@@ -4102,43 +4117,43 @@
         <v>81</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>185</v>
+        <v>81</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>81</v>
@@ -4147,18 +4162,18 @@
         <v>81</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>131</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4175,25 +4190,25 @@
         <v>81</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>189</v>
+        <v>108</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>81</v>
@@ -4218,13 +4233,13 @@
         <v>81</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>81</v>
@@ -4242,7 +4257,7 @@
         <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>79</v>
@@ -4263,18 +4278,18 @@
         <v>81</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>198</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4282,7 +4297,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>88</v>
@@ -4297,32 +4312,32 @@
         <v>89</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>102</v>
+        <v>194</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>204</v>
+        <v>81</v>
       </c>
       <c r="R18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>205</v>
+        <v>81</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>81</v>
@@ -4334,13 +4349,13 @@
         <v>81</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>81</v>
+        <v>199</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>81</v>
@@ -4358,7 +4373,7 @@
         <v>81</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>79</v>
@@ -4379,18 +4394,18 @@
         <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4413,30 +4428,32 @@
         <v>89</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>81</v>
+        <v>209</v>
       </c>
       <c r="R19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>81</v>
@@ -4472,7 +4489,7 @@
         <v>81</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>79</v>
@@ -4493,18 +4510,18 @@
         <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4512,7 +4529,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>88</v>
@@ -4527,15 +4544,17 @@
         <v>89</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>218</v>
+        <v>173</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>81</v>
@@ -4548,7 +4567,7 @@
         <v>81</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>81</v>
+        <v>218</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>81</v>
@@ -4584,7 +4603,7 @@
         <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>79</v>
@@ -4605,18 +4624,18 @@
         <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4639,17 +4658,15 @@
         <v>89</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="K21" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>228</v>
-      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>81</v>
@@ -4698,7 +4715,7 @@
         <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>79</v>
@@ -4719,22 +4736,20 @@
         <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
         <v>81</v>
       </c>
@@ -4743,7 +4758,7 @@
         <v>79</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>81</v>
@@ -4752,19 +4767,19 @@
         <v>81</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>153</v>
+        <v>230</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4814,13 +4829,13 @@
         <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>152</v>
+        <v>234</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>81</v>
@@ -4829,26 +4844,28 @@
         <v>100</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>158</v>
+        <v>81</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>160</v>
+        <v>235</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>162</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>81</v>
       </c>
@@ -4869,15 +4886,17 @@
         <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>81</v>
@@ -4926,50 +4945,50 @@
         <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>81</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>81</v>
@@ -4981,7 +5000,7 @@
         <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>174</v>
@@ -4989,9 +5008,7 @@
       <c r="L24" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>149</v>
-      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>81</v>
@@ -5028,40 +5045,40 @@
         <v>81</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="AB24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AC24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AE24" t="s" s="2">
+      <c r="AF24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>81</v>
@@ -5076,26 +5093,26 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>179</v>
@@ -5104,11 +5121,9 @@
         <v>180</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>81</v>
       </c>
@@ -5132,43 +5147,43 @@
         <v>81</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>185</v>
+        <v>81</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>81</v>
@@ -5177,18 +5192,18 @@
         <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>131</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5205,25 +5220,25 @@
         <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>189</v>
+        <v>108</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>81</v>
@@ -5248,13 +5263,13 @@
         <v>81</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>81</v>
@@ -5272,7 +5287,7 @@
         <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>79</v>
@@ -5293,18 +5308,18 @@
         <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>198</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5312,7 +5327,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>88</v>
@@ -5327,32 +5342,32 @@
         <v>89</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>102</v>
+        <v>194</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>236</v>
+        <v>195</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>238</v>
+        <v>81</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>205</v>
+        <v>81</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>81</v>
@@ -5364,13 +5379,13 @@
         <v>81</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>81</v>
+        <v>199</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>81</v>
@@ -5388,7 +5403,7 @@
         <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>79</v>
@@ -5409,18 +5424,18 @@
         <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5443,30 +5458,32 @@
         <v>89</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L28" t="s" s="2">
-        <v>240</v>
-      </c>
       <c r="M28" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>81</v>
@@ -5502,7 +5519,7 @@
         <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>79</v>
@@ -5523,18 +5540,18 @@
         <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5542,7 +5559,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>88</v>
@@ -5557,15 +5574,17 @@
         <v>89</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>218</v>
+        <v>173</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>81</v>
@@ -5578,7 +5597,7 @@
         <v>81</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>81</v>
+        <v>218</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>81</v>
@@ -5614,7 +5633,7 @@
         <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>79</v>
@@ -5635,18 +5654,18 @@
         <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5669,17 +5688,15 @@
         <v>89</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="K30" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>228</v>
-      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>81</v>
@@ -5728,7 +5745,7 @@
         <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>79</v>
@@ -5749,18 +5766,18 @@
         <v>81</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5768,7 +5785,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>88</v>
@@ -5777,22 +5794,22 @@
         <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>108</v>
+        <v>230</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5818,13 +5835,13 @@
         <v>81</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>246</v>
+        <v>81</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>247</v>
+        <v>81</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>81</v>
@@ -5842,10 +5859,10 @@
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>88</v>
@@ -5857,26 +5874,28 @@
         <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>248</v>
+        <v>81</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>249</v>
+        <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>81</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="B32" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="C32" t="s" s="2">
         <v>81</v>
       </c>
@@ -5885,7 +5904,7 @@
         <v>79</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>81</v>
@@ -5897,16 +5916,16 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>189</v>
+        <v>153</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>254</v>
+        <v>167</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5932,13 +5951,13 @@
         <v>81</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>255</v>
+        <v>81</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>256</v>
+        <v>81</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>257</v>
+        <v>81</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>81</v>
@@ -5956,13 +5975,13 @@
         <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>252</v>
+        <v>152</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>81</v>
@@ -5971,24 +5990,24 @@
         <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>258</v>
+        <v>159</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>259</v>
+        <v>161</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>81</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>260</v>
+        <v>172</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5996,7 +6015,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>88</v>
@@ -6005,23 +6024,21 @@
         <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>261</v>
+        <v>174</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>81</v>
@@ -6046,13 +6063,13 @@
         <v>81</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>264</v>
+        <v>81</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>81</v>
@@ -6070,10 +6087,10 @@
         <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>260</v>
+        <v>176</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>88</v>
@@ -6082,19 +6099,19 @@
         <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>266</v>
+        <v>81</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>267</v>
+        <v>177</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>268</v>
+        <v>81</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -6102,11 +6119,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>269</v>
+        <v>178</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -6125,16 +6142,16 @@
         <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>270</v>
+        <v>179</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>271</v>
+        <v>180</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>272</v>
+        <v>149</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6160,29 +6177,31 @@
         <v>81</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="X34" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Y34" t="s" s="2">
-        <v>273</v>
+        <v>81</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>269</v>
+        <v>182</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
@@ -6194,19 +6213,19 @@
         <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>274</v>
+        <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>275</v>
+        <v>177</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>268</v>
+        <v>81</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -6214,7 +6233,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>276</v>
+        <v>183</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6231,7 +6250,7 @@
         <v>81</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>89</v>
@@ -6240,15 +6259,17 @@
         <v>108</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>277</v>
+        <v>184</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>278</v>
+        <v>185</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>81</v>
       </c>
@@ -6272,13 +6293,13 @@
         <v>81</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>280</v>
+        <v>189</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>281</v>
+        <v>190</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>81</v>
@@ -6296,7 +6317,7 @@
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>276</v>
+        <v>191</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
@@ -6311,24 +6332,24 @@
         <v>100</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>282</v>
+        <v>81</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>283</v>
+        <v>192</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>284</v>
+        <v>81</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>81</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6345,24 +6366,26 @@
         <v>81</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>287</v>
+        <v>195</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>288</v>
+        <v>196</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>81</v>
       </c>
@@ -6386,13 +6409,13 @@
         <v>81</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>81</v>
+        <v>199</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>81</v>
@@ -6410,7 +6433,7 @@
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>285</v>
+        <v>202</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -6431,18 +6454,18 @@
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>290</v>
+        <v>192</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>81</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>291</v>
+        <v>204</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6450,7 +6473,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>88</v>
@@ -6465,28 +6488,32 @@
         <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>292</v>
+        <v>102</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>293</v>
+        <v>238</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>81</v>
+        <v>247</v>
       </c>
       <c r="R37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>81</v>
+        <v>210</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>81</v>
@@ -6522,7 +6549,7 @@
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>291</v>
+        <v>211</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -6543,18 +6570,18 @@
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>295</v>
+        <v>212</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>81</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>296</v>
+        <v>214</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6577,16 +6604,16 @@
         <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>297</v>
+        <v>173</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>298</v>
+        <v>241</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>299</v>
+        <v>242</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>300</v>
+        <v>243</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6600,7 +6627,7 @@
         <v>81</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>81</v>
+        <v>218</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>81</v>
@@ -6624,20 +6651,22 @@
         <v>81</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AB38" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AC38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>302</v>
+        <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>296</v>
+        <v>219</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>88</v>
@@ -6649,34 +6678,32 @@
         <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>303</v>
+        <v>81</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>304</v>
+        <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>305</v>
+        <v>220</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>306</v>
+        <v>81</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>307</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>88</v>
@@ -6691,17 +6718,15 @@
         <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>309</v>
+        <v>223</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>310</v>
+        <v>224</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>81</v>
@@ -6750,10 +6775,10 @@
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>296</v>
+        <v>226</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>88</v>
@@ -6765,24 +6790,24 @@
         <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>303</v>
+        <v>81</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>304</v>
+        <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>305</v>
+        <v>227</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>306</v>
+        <v>81</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>307</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>313</v>
+        <v>229</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6790,7 +6815,7 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>88</v>
@@ -6805,16 +6830,16 @@
         <v>89</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>314</v>
+        <v>230</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>315</v>
+        <v>231</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>316</v>
+        <v>232</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>317</v>
+        <v>233</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6864,10 +6889,10 @@
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>313</v>
+        <v>234</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>88</v>
@@ -6879,24 +6904,24 @@
         <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>318</v>
+        <v>81</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>319</v>
+        <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>320</v>
+        <v>235</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>321</v>
+        <v>81</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>322</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>323</v>
+        <v>248</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6904,7 +6929,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>88</v>
@@ -6913,22 +6938,22 @@
         <v>81</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>324</v>
+        <v>108</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>325</v>
+        <v>249</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>326</v>
+        <v>250</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>327</v>
+        <v>251</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6954,13 +6979,13 @@
         <v>81</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>81</v>
+        <v>188</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>81</v>
+        <v>252</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>81</v>
+        <v>253</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>81</v>
@@ -6978,10 +7003,10 @@
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>323</v>
+        <v>248</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>88</v>
@@ -6993,24 +7018,24 @@
         <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>328</v>
+        <v>254</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>329</v>
+        <v>256</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>330</v>
+        <v>257</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>331</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>332</v>
+        <v>258</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7021,7 +7046,7 @@
         <v>79</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>81</v>
@@ -7033,16 +7058,16 @@
         <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>333</v>
+        <v>194</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>334</v>
+        <v>259</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>335</v>
+        <v>259</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>336</v>
+        <v>260</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7068,13 +7093,13 @@
         <v>81</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>81</v>
+        <v>261</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>81</v>
+        <v>262</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>81</v>
@@ -7092,13 +7117,13 @@
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>332</v>
+        <v>258</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>81</v>
@@ -7107,16 +7132,16 @@
         <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>337</v>
+        <v>264</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>338</v>
+        <v>265</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>330</v>
+        <v>81</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -7124,7 +7149,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>339</v>
+        <v>266</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7141,21 +7166,23 @@
         <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>340</v>
+        <v>108</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>341</v>
+        <v>267</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>81</v>
@@ -7180,13 +7207,13 @@
         <v>81</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>81</v>
+        <v>188</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>81</v>
+        <v>270</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>81</v>
+        <v>271</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>81</v>
@@ -7204,10 +7231,10 @@
         <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>339</v>
+        <v>266</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>88</v>
@@ -7219,24 +7246,24 @@
         <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>343</v>
+        <v>272</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>344</v>
+        <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>345</v>
+        <v>273</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>346</v>
+        <v>274</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>347</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>348</v>
+        <v>275</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7247,7 +7274,7 @@
         <v>79</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>81</v>
@@ -7256,19 +7283,19 @@
         <v>81</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>349</v>
+        <v>194</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>350</v>
+        <v>276</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>351</v>
+        <v>277</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>336</v>
+        <v>278</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7294,13 +7321,11 @@
         <v>81</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X44" s="2"/>
       <c r="Y44" t="s" s="2">
-        <v>81</v>
+        <v>279</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>81</v>
@@ -7318,13 +7343,13 @@
         <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>348</v>
+        <v>275</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>81</v>
@@ -7333,16 +7358,16 @@
         <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>352</v>
+        <v>81</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>81</v>
+        <v>280</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>353</v>
+        <v>274</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -7350,7 +7375,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>354</v>
+        <v>282</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7370,19 +7395,19 @@
         <v>81</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>355</v>
+        <v>108</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>356</v>
+        <v>283</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>357</v>
+        <v>284</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>336</v>
+        <v>285</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7408,13 +7433,13 @@
         <v>81</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>81</v>
+        <v>188</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>81</v>
+        <v>287</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>81</v>
@@ -7432,7 +7457,7 @@
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>354</v>
+        <v>282</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
@@ -7447,16 +7472,16 @@
         <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>358</v>
+        <v>288</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>359</v>
+        <v>289</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>360</v>
+        <v>290</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7464,7 +7489,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>361</v>
+        <v>291</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7481,22 +7506,22 @@
         <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>189</v>
+        <v>292</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>362</v>
+        <v>293</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>363</v>
+        <v>294</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>364</v>
+        <v>295</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7522,11 +7547,13 @@
         <v>81</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="X46" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Y46" t="s" s="2">
-        <v>365</v>
+        <v>81</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>81</v>
@@ -7544,7 +7571,7 @@
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>361</v>
+        <v>291</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7559,13 +7586,13 @@
         <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>366</v>
+        <v>81</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>367</v>
+        <v>296</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>81</v>
@@ -7576,7 +7603,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>368</v>
+        <v>297</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7596,20 +7623,18 @@
         <v>81</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>369</v>
+        <v>298</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>370</v>
+        <v>299</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>81</v>
@@ -7658,7 +7683,7 @@
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>368</v>
+        <v>297</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>79</v>
@@ -7679,10 +7704,10 @@
         <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>372</v>
+        <v>301</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>373</v>
+        <v>81</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>81</v>
@@ -7690,7 +7715,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>374</v>
+        <v>302</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7698,10 +7723,10 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>81</v>
@@ -7710,19 +7735,19 @@
         <v>81</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>189</v>
+        <v>303</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>375</v>
+        <v>304</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>376</v>
+        <v>305</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>377</v>
+        <v>306</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7748,37 +7773,35 @@
         <v>81</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>255</v>
+        <v>81</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>378</v>
+        <v>81</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>379</v>
+        <v>81</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="AB48" s="2"/>
       <c r="AC48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>374</v>
+        <v>302</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>81</v>
@@ -7787,35 +7810,37 @@
         <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>380</v>
+        <v>308</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>381</v>
+        <v>309</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>382</v>
+        <v>310</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>383</v>
+        <v>311</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>384</v>
+        <v>312</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="B49" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="C49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>81</v>
@@ -7824,19 +7849,19 @@
         <v>81</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>386</v>
+        <v>314</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>387</v>
+        <v>315</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>388</v>
+        <v>316</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>389</v>
+        <v>317</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7886,13 +7911,13 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>385</v>
+        <v>302</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>81</v>
@@ -7901,24 +7926,24 @@
         <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>390</v>
+        <v>308</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>249</v>
+        <v>309</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>391</v>
+        <v>310</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>383</v>
+        <v>311</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>81</v>
+        <v>312</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>392</v>
+        <v>318</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7926,10 +7951,10 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>81</v>
@@ -7941,16 +7966,16 @@
         <v>89</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>393</v>
+        <v>319</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>394</v>
+        <v>320</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>395</v>
+        <v>321</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>396</v>
+        <v>322</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -8000,13 +8025,13 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>392</v>
+        <v>318</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>81</v>
@@ -8015,24 +8040,24 @@
         <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>397</v>
+        <v>323</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>81</v>
+        <v>324</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>398</v>
+        <v>325</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>81</v>
+        <v>326</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>81</v>
+        <v>327</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>399</v>
+        <v>328</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8043,7 +8068,7 @@
         <v>79</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>81</v>
@@ -8052,19 +8077,19 @@
         <v>81</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>102</v>
+        <v>329</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>395</v>
+        <v>331</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>401</v>
+        <v>332</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -8114,13 +8139,13 @@
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>399</v>
+        <v>328</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>81</v>
@@ -8129,24 +8154,24 @@
         <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>81</v>
+        <v>333</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>81</v>
+        <v>255</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>398</v>
+        <v>334</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>81</v>
+        <v>335</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>81</v>
+        <v>336</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>402</v>
+        <v>337</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8166,19 +8191,19 @@
         <v>81</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>403</v>
+        <v>338</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>404</v>
+        <v>339</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>405</v>
+        <v>340</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8228,7 +8253,7 @@
         <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>402</v>
+        <v>337</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
@@ -8243,16 +8268,16 @@
         <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>406</v>
+        <v>342</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>407</v>
+        <v>343</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>81</v>
+        <v>335</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>
@@ -8260,7 +8285,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>408</v>
+        <v>344</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8268,7 +8293,7 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>88</v>
@@ -8283,18 +8308,16 @@
         <v>89</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>153</v>
+        <v>345</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>409</v>
+        <v>346</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>410</v>
+        <v>347</v>
       </c>
       <c r="M53" s="2"/>
-      <c r="N53" t="s" s="2">
-        <v>411</v>
-      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>81</v>
       </c>
@@ -8342,7 +8365,7 @@
         <v>81</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>408</v>
+        <v>344</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>79</v>
@@ -8357,24 +8380,24 @@
         <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>412</v>
+        <v>348</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>81</v>
+        <v>349</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>413</v>
+        <v>350</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>81</v>
+        <v>352</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>414</v>
+        <v>353</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8394,19 +8417,19 @@
         <v>81</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>189</v>
+        <v>354</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>415</v>
+        <v>355</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>416</v>
+        <v>356</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>417</v>
+        <v>341</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8432,13 +8455,13 @@
         <v>81</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>255</v>
+        <v>81</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>418</v>
+        <v>81</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>419</v>
+        <v>81</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>81</v>
@@ -8456,7 +8479,7 @@
         <v>81</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>414</v>
+        <v>353</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>79</v>
@@ -8471,16 +8494,16 @@
         <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>81</v>
+        <v>357</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>420</v>
+        <v>325</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>81</v>
+        <v>358</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
@@ -8488,7 +8511,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>421</v>
+        <v>359</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8499,7 +8522,7 @@
         <v>79</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>81</v>
@@ -8511,16 +8534,16 @@
         <v>81</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>422</v>
+        <v>360</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>423</v>
+        <v>361</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>424</v>
+        <v>362</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8570,13 +8593,13 @@
         <v>81</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>421</v>
+        <v>359</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>81</v>
@@ -8585,16 +8608,16 @@
         <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>425</v>
+        <v>363</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>426</v>
+        <v>364</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>81</v>
+        <v>365</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>81</v>
@@ -8602,7 +8625,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>427</v>
+        <v>366</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8613,7 +8636,7 @@
         <v>79</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>81</v>
@@ -8622,19 +8645,19 @@
         <v>81</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>428</v>
+        <v>194</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>429</v>
+        <v>367</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>430</v>
+        <v>368</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>431</v>
+        <v>369</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8660,13 +8683,11 @@
         <v>81</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
-        <v>81</v>
+        <v>370</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>81</v>
@@ -8684,13 +8705,13 @@
         <v>81</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>427</v>
+        <v>366</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>81</v>
@@ -8699,13 +8720,13 @@
         <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>432</v>
+        <v>371</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>433</v>
+        <v>81</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>434</v>
+        <v>372</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>81</v>
@@ -8716,7 +8737,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>435</v>
+        <v>373</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8727,7 +8748,7 @@
         <v>79</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>81</v>
@@ -8739,16 +8760,16 @@
         <v>81</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>436</v>
+        <v>374</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>437</v>
+        <v>375</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>437</v>
+        <v>376</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>438</v>
+        <v>341</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8798,13 +8819,13 @@
         <v>81</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>435</v>
+        <v>373</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>81</v>
@@ -8819,10 +8840,10 @@
         <v>81</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>439</v>
+        <v>377</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>81</v>
+        <v>378</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>81</v>
@@ -8830,7 +8851,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>440</v>
+        <v>379</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8841,7 +8862,7 @@
         <v>79</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>81</v>
@@ -8853,15 +8874,17 @@
         <v>81</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>441</v>
+        <v>194</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>442</v>
+        <v>380</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>81</v>
@@ -8886,13 +8909,13 @@
         <v>81</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>81</v>
+        <v>261</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>81</v>
+        <v>383</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>81</v>
+        <v>384</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>81</v>
@@ -8910,13 +8933,13 @@
         <v>81</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>440</v>
+        <v>379</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>81</v>
@@ -8925,24 +8948,24 @@
         <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>81</v>
+        <v>385</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>444</v>
+        <v>386</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>445</v>
+        <v>387</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>81</v>
+        <v>388</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>81</v>
+        <v>389</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>446</v>
+        <v>390</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8953,7 +8976,7 @@
         <v>79</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>81</v>
@@ -8965,15 +8988,17 @@
         <v>81</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>168</v>
+        <v>391</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>447</v>
+        <v>392</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>81</v>
@@ -9022,31 +9047,31 @@
         <v>81</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>171</v>
+        <v>390</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>81</v>
+        <v>395</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>81</v>
+        <v>255</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>172</v>
+        <v>396</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>81</v>
+        <v>388</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>81</v>
@@ -9054,7 +9079,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>449</v>
+        <v>397</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9074,18 +9099,20 @@
         <v>81</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>133</v>
+        <v>398</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>134</v>
+        <v>399</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>81</v>
@@ -9122,17 +9149,19 @@
         <v>81</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AB60" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AC60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>177</v>
+        <v>397</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>79</v>
@@ -9144,16 +9173,16 @@
         <v>81</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>81</v>
+        <v>402</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>81</v>
+        <v>403</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>81</v>
@@ -9164,11 +9193,9 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>450</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
         <v>81</v>
       </c>
@@ -9186,18 +9213,20 @@
         <v>81</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>451</v>
+        <v>102</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>452</v>
+        <v>405</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>81</v>
@@ -9246,7 +9275,7 @@
         <v>81</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>177</v>
+        <v>404</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>79</v>
@@ -9255,10 +9284,10 @@
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>81</v>
@@ -9267,7 +9296,7 @@
         <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>81</v>
+        <v>403</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>81</v>
@@ -9278,11 +9307,9 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>454</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
         <v>81</v>
       </c>
@@ -9291,7 +9318,7 @@
         <v>79</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>81</v>
@@ -9300,18 +9327,20 @@
         <v>81</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>455</v>
+        <v>408</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>456</v>
+        <v>409</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>81</v>
@@ -9360,7 +9389,7 @@
         <v>81</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>177</v>
+        <v>407</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>79</v>
@@ -9369,19 +9398,19 @@
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>81</v>
+        <v>411</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>81</v>
+        <v>412</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>81</v>
@@ -9392,42 +9421,40 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>458</v>
+        <v>413</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>459</v>
+        <v>81</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>460</v>
+        <v>414</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" t="s" s="2">
-        <v>150</v>
+        <v>416</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>81</v>
@@ -9476,28 +9503,28 @@
         <v>81</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>462</v>
+        <v>413</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>81</v>
+        <v>417</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>131</v>
+        <v>418</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>81</v>
@@ -9508,7 +9535,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>463</v>
+        <v>419</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9531,16 +9558,16 @@
         <v>81</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>441</v>
+        <v>194</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>464</v>
+        <v>420</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>465</v>
+        <v>421</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>466</v>
+        <v>422</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9566,13 +9593,13 @@
         <v>81</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>81</v>
+        <v>261</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>81</v>
+        <v>423</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>81</v>
+        <v>424</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>81</v>
@@ -9590,7 +9617,7 @@
         <v>81</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>463</v>
+        <v>419</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>79</v>
@@ -9611,7 +9638,7 @@
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>467</v>
+        <v>425</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>81</v>
@@ -9622,7 +9649,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>468</v>
+        <v>426</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9633,7 +9660,7 @@
         <v>79</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>81</v>
@@ -9645,15 +9672,17 @@
         <v>81</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>168</v>
+        <v>427</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>169</v>
+        <v>428</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>429</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>81</v>
@@ -9702,28 +9731,28 @@
         <v>81</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>171</v>
+        <v>426</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>81</v>
+        <v>430</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>172</v>
+        <v>431</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>81</v>
@@ -9734,11 +9763,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>469</v>
+        <v>432</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9757,16 +9786,16 @@
         <v>81</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>133</v>
+        <v>433</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>174</v>
+        <v>434</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>175</v>
+        <v>435</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>149</v>
+        <v>436</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9816,7 +9845,7 @@
         <v>81</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>177</v>
+        <v>432</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>79</v>
@@ -9828,16 +9857,16 @@
         <v>81</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>81</v>
+        <v>437</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>81</v>
+        <v>438</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>172</v>
+        <v>439</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>81</v>
@@ -9848,11 +9877,11 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>470</v>
+        <v>440</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>459</v>
+        <v>81</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9865,26 +9894,24 @@
         <v>81</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>133</v>
+        <v>441</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>81</v>
       </c>
@@ -9932,7 +9959,7 @@
         <v>81</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>462</v>
+        <v>440</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>79</v>
@@ -9944,7 +9971,7 @@
         <v>81</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>81</v>
@@ -9953,7 +9980,7 @@
         <v>81</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>131</v>
+        <v>444</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>81</v>
@@ -9964,7 +9991,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>471</v>
+        <v>445</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9987,17 +10014,15 @@
         <v>81</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>472</v>
+        <v>446</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>475</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>81</v>
@@ -10046,7 +10071,7 @@
         <v>81</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>471</v>
+        <v>445</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>79</v>
@@ -10055,30 +10080,30 @@
         <v>88</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>476</v>
+        <v>100</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>81</v>
+        <v>449</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>477</v>
+        <v>450</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>478</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>479</v>
+        <v>451</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10101,17 +10126,15 @@
         <v>81</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>480</v>
+        <v>173</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>481</v>
+        <v>452</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>475</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>81</v>
@@ -10160,7 +10183,7 @@
         <v>81</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>479</v>
+        <v>176</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>79</v>
@@ -10172,7 +10195,7 @@
         <v>81</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>81</v>
@@ -10181,7 +10204,7 @@
         <v>81</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>483</v>
+        <v>177</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>81</v>
@@ -10192,7 +10215,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>484</v>
+        <v>454</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10203,7 +10226,7 @@
         <v>79</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>81</v>
@@ -10215,17 +10238,15 @@
         <v>81</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>480</v>
+        <v>133</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>485</v>
+        <v>134</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>475</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>81</v>
@@ -10262,31 +10283,29 @@
         <v>81</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AB70" s="2"/>
       <c r="AC70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD70" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>484</v>
+        <v>182</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>81</v>
@@ -10295,7 +10314,7 @@
         <v>81</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>483</v>
+        <v>81</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>81</v>
@@ -10306,9 +10325,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="B71" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="C71" t="s" s="2">
         <v>81</v>
       </c>
@@ -10317,7 +10338,7 @@
         <v>79</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>81</v>
@@ -10329,20 +10350,16 @@
         <v>81</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>218</v>
+        <v>456</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>488</v>
+        <v>457</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>491</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>81</v>
       </c>
@@ -10390,28 +10407,28 @@
         <v>81</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>487</v>
+        <v>182</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>492</v>
+        <v>81</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>493</v>
+        <v>81</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>81</v>
@@ -10422,9 +10439,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="B72" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="C72" t="s" s="2">
         <v>81</v>
       </c>
@@ -10445,13 +10464,13 @@
         <v>81</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>168</v>
+        <v>460</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>169</v>
+        <v>461</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>170</v>
+        <v>462</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10502,19 +10521,19 @@
         <v>81</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>81</v>
@@ -10523,7 +10542,7 @@
         <v>81</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>81</v>
@@ -10534,11 +10553,11 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>495</v>
+        <v>463</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>146</v>
+        <v>464</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10551,24 +10570,26 @@
         <v>81</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J73" t="s" s="2">
         <v>133</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>174</v>
+        <v>465</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>175</v>
+        <v>466</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N73" s="2"/>
+      <c r="N73" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>81</v>
       </c>
@@ -10604,19 +10625,19 @@
         <v>81</v>
       </c>
       <c r="AA73" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD73" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>177</v>
+        <v>467</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>79</v>
@@ -10637,7 +10658,7 @@
         <v>81</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>81</v>
@@ -10648,7 +10669,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>496</v>
+        <v>468</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10668,19 +10689,19 @@
         <v>81</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>340</v>
+        <v>446</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>497</v>
+        <v>469</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>498</v>
+        <v>470</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>499</v>
+        <v>471</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10730,7 +10751,7 @@
         <v>81</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>500</v>
+        <v>468</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>79</v>
@@ -10739,7 +10760,7 @@
         <v>88</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>100</v>
@@ -10751,18 +10772,18 @@
         <v>81</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>502</v>
+        <v>472</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>503</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>504</v>
+        <v>473</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10782,27 +10803,23 @@
         <v>81</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>340</v>
+        <v>173</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>505</v>
+        <v>174</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>507</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="P75" t="s" s="2">
-        <v>508</v>
-      </c>
+      <c r="P75" s="2"/>
       <c r="Q75" t="s" s="2">
         <v>81</v>
       </c>
@@ -10846,7 +10863,7 @@
         <v>81</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>509</v>
+        <v>176</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>79</v>
@@ -10855,10 +10872,10 @@
         <v>88</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>81</v>
@@ -10867,29 +10884,29 @@
         <v>81</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>510</v>
+        <v>177</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>511</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>81</v>
@@ -10901,16 +10918,16 @@
         <v>81</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>513</v>
+        <v>133</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>514</v>
+        <v>179</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>515</v>
+        <v>180</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>516</v>
+        <v>149</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10960,73 +10977,75 @@
         <v>81</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>512</v>
+        <v>182</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>517</v>
+        <v>81</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>518</v>
+        <v>177</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>519</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>520</v>
+        <v>475</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>81</v>
+        <v>464</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>472</v>
+        <v>133</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>521</v>
+        <v>465</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>522</v>
+        <v>466</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>81</v>
       </c>
@@ -11074,19 +11093,19 @@
         <v>81</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>520</v>
+        <v>467</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>476</v>
+        <v>139</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>81</v>
@@ -11095,18 +11114,18 @@
         <v>81</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>477</v>
+        <v>131</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>478</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>523</v>
+        <v>476</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11129,16 +11148,16 @@
         <v>81</v>
       </c>
       <c r="J78" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11188,7 +11207,7 @@
         <v>81</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>523</v>
+        <v>476</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>79</v>
@@ -11197,30 +11216,30 @@
         <v>88</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>100</v>
+        <v>481</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>527</v>
+        <v>81</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>528</v>
+        <v>482</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>81</v>
+        <v>483</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>529</v>
+        <v>484</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11243,15 +11262,17 @@
         <v>81</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>168</v>
+        <v>485</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>169</v>
+        <v>486</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>487</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>81</v>
@@ -11300,7 +11321,7 @@
         <v>81</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>171</v>
+        <v>484</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>79</v>
@@ -11312,7 +11333,7 @@
         <v>81</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>81</v>
@@ -11321,7 +11342,7 @@
         <v>81</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>172</v>
+        <v>488</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>81</v>
@@ -11332,18 +11353,18 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>530</v>
+        <v>489</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>81</v>
@@ -11355,16 +11376,16 @@
         <v>81</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>133</v>
+        <v>485</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>174</v>
+        <v>490</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>175</v>
+        <v>491</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>149</v>
+        <v>480</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11402,31 +11423,31 @@
         <v>81</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="AC80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD80" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>177</v>
+        <v>489</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>81</v>
@@ -11435,7 +11456,7 @@
         <v>81</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>172</v>
+        <v>488</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>81</v>
@@ -11446,7 +11467,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>531</v>
+        <v>492</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11466,22 +11487,22 @@
         <v>81</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>532</v>
+        <v>223</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>533</v>
+        <v>493</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>534</v>
+        <v>494</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>535</v>
+        <v>495</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>536</v>
+        <v>496</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>81</v>
@@ -11530,7 +11551,7 @@
         <v>81</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>537</v>
+        <v>492</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>79</v>
@@ -11548,21 +11569,21 @@
         <v>81</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>81</v>
+        <v>497</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>538</v>
+        <v>498</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>539</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>540</v>
+        <v>499</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11579,30 +11600,26 @@
         <v>81</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>541</v>
+        <v>174</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>542</v>
+        <v>175</v>
       </c>
       <c r="M82" s="2"/>
-      <c r="N82" t="s" s="2">
-        <v>543</v>
-      </c>
+      <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="P82" t="s" s="2">
-        <v>544</v>
-      </c>
+      <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
         <v>81</v>
       </c>
@@ -11622,13 +11639,13 @@
         <v>81</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>545</v>
+        <v>81</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>546</v>
+        <v>81</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>81</v>
@@ -11646,7 +11663,7 @@
         <v>81</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>547</v>
+        <v>176</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>79</v>
@@ -11658,7 +11675,7 @@
         <v>81</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>81</v>
@@ -11667,29 +11684,29 @@
         <v>81</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>548</v>
+        <v>177</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>549</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>81</v>
@@ -11698,27 +11715,27 @@
         <v>81</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>551</v>
+        <v>179</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="M83" s="2"/>
-      <c r="N83" t="s" s="2">
-        <v>553</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" t="s" s="2">
-        <v>554</v>
+        <v>81</v>
       </c>
       <c r="R83" t="s" s="2">
         <v>81</v>
@@ -11748,31 +11765,31 @@
         <v>81</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="AC83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD83" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>555</v>
+        <v>182</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>81</v>
@@ -11781,18 +11798,18 @@
         <v>81</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>556</v>
+        <v>177</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>557</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>558</v>
+        <v>501</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11815,24 +11832,24 @@
         <v>89</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>102</v>
+        <v>345</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>559</v>
+        <v>502</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="M84" s="2"/>
-      <c r="N84" t="s" s="2">
-        <v>561</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
-        <v>562</v>
+        <v>81</v>
       </c>
       <c r="R84" t="s" s="2">
         <v>81</v>
@@ -11874,7 +11891,7 @@
         <v>81</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>563</v>
+        <v>505</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>79</v>
@@ -11883,7 +11900,7 @@
         <v>88</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>564</v>
+        <v>506</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>100</v>
@@ -11895,18 +11912,18 @@
         <v>81</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>565</v>
+        <v>507</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>557</v>
+        <v>508</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>566</v>
+        <v>509</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11929,26 +11946,26 @@
         <v>89</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>108</v>
+        <v>345</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>567</v>
+        <v>510</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>568</v>
+        <v>511</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>570</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="P85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>513</v>
+      </c>
       <c r="Q85" t="s" s="2">
-        <v>571</v>
+        <v>81</v>
       </c>
       <c r="R85" t="s" s="2">
         <v>81</v>
@@ -11990,7 +12007,7 @@
         <v>81</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>572</v>
+        <v>514</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>79</v>
@@ -11999,7 +12016,7 @@
         <v>88</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>81</v>
+        <v>506</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>100</v>
@@ -12011,18 +12028,18 @@
         <v>81</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>573</v>
+        <v>515</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>557</v>
+        <v>516</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>574</v>
+        <v>517</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12045,16 +12062,16 @@
         <v>81</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>575</v>
+        <v>518</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>576</v>
+        <v>519</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>577</v>
+        <v>520</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>336</v>
+        <v>521</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -12104,7 +12121,7 @@
         <v>81</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>574</v>
+        <v>517</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>79</v>
@@ -12122,21 +12139,21 @@
         <v>81</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>81</v>
+        <v>522</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>578</v>
+        <v>523</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>373</v>
+        <v>81</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>81</v>
+        <v>524</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>579</v>
+        <v>525</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12159,15 +12176,17 @@
         <v>81</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>441</v>
+        <v>477</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>580</v>
+        <v>526</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="M87" s="2"/>
+        <v>527</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>81</v>
@@ -12216,7 +12235,7 @@
         <v>81</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>579</v>
+        <v>525</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>79</v>
@@ -12225,30 +12244,30 @@
         <v>88</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>100</v>
+        <v>481</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>582</v>
+        <v>81</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>583</v>
+        <v>482</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>81</v>
+        <v>483</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>584</v>
+        <v>528</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12271,15 +12290,17 @@
         <v>81</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>168</v>
+        <v>485</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>169</v>
+        <v>529</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M88" s="2"/>
+        <v>530</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>531</v>
+      </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>81</v>
@@ -12328,7 +12349,7 @@
         <v>81</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>171</v>
+        <v>528</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>79</v>
@@ -12340,16 +12361,16 @@
         <v>81</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>81</v>
+        <v>532</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>172</v>
+        <v>533</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>81</v>
@@ -12360,18 +12381,18 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>585</v>
+        <v>534</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>81</v>
@@ -12383,7 +12404,7 @@
         <v>81</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="K89" t="s" s="2">
         <v>174</v>
@@ -12391,9 +12412,7 @@
       <c r="L89" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="M89" t="s" s="2">
-        <v>149</v>
-      </c>
+      <c r="M89" s="2"/>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>81</v>
@@ -12442,28 +12461,28 @@
         <v>81</v>
       </c>
       <c r="AE89" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL89" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>81</v>
@@ -12474,11 +12493,11 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>586</v>
+        <v>535</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>459</v>
+        <v>146</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -12491,26 +12510,24 @@
         <v>81</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J90" t="s" s="2">
         <v>133</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>460</v>
+        <v>179</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>461</v>
+        <v>180</v>
       </c>
       <c r="M90" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N90" t="s" s="2">
-        <v>150</v>
-      </c>
+      <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>81</v>
       </c>
@@ -12546,19 +12563,19 @@
         <v>81</v>
       </c>
       <c r="AA90" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="AC90" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD90" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>462</v>
+        <v>182</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>79</v>
@@ -12579,7 +12596,7 @@
         <v>81</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>81</v>
@@ -12590,7 +12607,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>587</v>
+        <v>536</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12598,7 +12615,7 @@
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F91" t="s" s="2">
         <v>88</v>
@@ -12610,21 +12627,23 @@
         <v>81</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>189</v>
+        <v>537</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>580</v>
+        <v>538</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>588</v>
+        <v>539</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="N91" s="2"/>
+        <v>540</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>541</v>
+      </c>
       <c r="O91" t="s" s="2">
         <v>81</v>
       </c>
@@ -12648,11 +12667,13 @@
         <v>81</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="X91" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Y91" t="s" s="2">
-        <v>590</v>
+        <v>81</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>81</v>
@@ -12670,10 +12691,10 @@
         <v>81</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>587</v>
+        <v>542</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>88</v>
@@ -12688,21 +12709,21 @@
         <v>81</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>582</v>
+        <v>81</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>591</v>
+        <v>543</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>592</v>
+        <v>544</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>593</v>
+        <v>545</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12719,28 +12740,30 @@
         <v>81</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>189</v>
+        <v>108</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>594</v>
+        <v>546</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>547</v>
+      </c>
+      <c r="M92" s="2"/>
+      <c r="N92" t="s" s="2">
+        <v>548</v>
+      </c>
       <c r="O92" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="P92" s="2"/>
+      <c r="P92" t="s" s="2">
+        <v>549</v>
+      </c>
       <c r="Q92" t="s" s="2">
         <v>81</v>
       </c>
@@ -12760,13 +12783,13 @@
         <v>81</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>255</v>
+        <v>188</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>597</v>
+        <v>550</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>598</v>
+        <v>551</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>81</v>
@@ -12784,7 +12807,7 @@
         <v>81</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>593</v>
+        <v>552</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>79</v>
@@ -12802,21 +12825,21 @@
         <v>81</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>599</v>
+        <v>81</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>600</v>
+        <v>553</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>601</v>
+        <v>554</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>602</v>
+        <v>555</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12836,27 +12859,27 @@
         <v>81</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>603</v>
+        <v>173</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>604</v>
+        <v>556</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>557</v>
+      </c>
+      <c r="M93" s="2"/>
+      <c r="N93" t="s" s="2">
+        <v>558</v>
+      </c>
       <c r="O93" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P93" s="2"/>
       <c r="Q93" t="s" s="2">
-        <v>81</v>
+        <v>559</v>
       </c>
       <c r="R93" t="s" s="2">
         <v>81</v>
@@ -12898,7 +12921,7 @@
         <v>81</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>602</v>
+        <v>560</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>79</v>
@@ -12913,35 +12936,35 @@
         <v>100</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>606</v>
+        <v>81</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>599</v>
+        <v>81</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>607</v>
+        <v>561</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>81</v>
+        <v>562</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>608</v>
+        <v>563</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>609</v>
+        <v>81</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>81</v>
@@ -12950,27 +12973,27 @@
         <v>81</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>610</v>
+        <v>102</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>611</v>
+        <v>564</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>565</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" t="s" s="2">
+        <v>566</v>
+      </c>
       <c r="O94" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P94" s="2"/>
       <c r="Q94" t="s" s="2">
-        <v>81</v>
+        <v>567</v>
       </c>
       <c r="R94" t="s" s="2">
         <v>81</v>
@@ -13012,16 +13035,16 @@
         <v>81</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>608</v>
+        <v>568</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>81</v>
+        <v>569</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>100</v>
@@ -13033,18 +13056,18 @@
         <v>81</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>614</v>
+        <v>570</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>81</v>
+        <v>562</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>615</v>
+        <v>571</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13055,7 +13078,7 @@
         <v>79</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>81</v>
@@ -13064,27 +13087,29 @@
         <v>81</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>616</v>
+        <v>108</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>617</v>
+        <v>572</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>618</v>
+        <v>573</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="N95" s="2"/>
+        <v>574</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>575</v>
+      </c>
       <c r="O95" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P95" s="2"/>
       <c r="Q95" t="s" s="2">
-        <v>81</v>
+        <v>576</v>
       </c>
       <c r="R95" t="s" s="2">
         <v>81</v>
@@ -13126,13 +13151,13 @@
         <v>81</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>615</v>
+        <v>577</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>81</v>
@@ -13141,18 +13166,1154 @@
         <v>100</v>
       </c>
       <c r="AJ95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X101" s="2"/>
+      <c r="Y101" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="AK95" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL95" t="s" s="2">
+      <c r="B105" s="2"/>
+      <c r="C105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J105" t="s" s="2">
         <v>621</v>
       </c>
-      <c r="AM95" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN95" t="s" s="2">
+      <c r="K105" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="N105" s="2"/>
+      <c r="O105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN105" t="s" s="2">
         <v>81</v>
       </c>
     </row>

--- a/jpcore-r4/feature/v1.1.0-kohe-medReq/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/feature/v1.1.0-kohe-medReq/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -528,18 +528,6 @@
     <t>ORC-2-Placer Order Number / ORC-3-Filler Order Number</t>
   </si>
   <si>
-    <t>@default</t>
-  </si>
-  <si>
-    <t>External ids for this request</t>
-  </si>
-  <si>
-    <t>Identifiers associated with this medication request that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.</t>
-  </si>
-  <si>
-    <t>This is a business identifier, not a resource identifier.</t>
-  </si>
-  <si>
     <t>rpNumber</t>
   </si>
   <si>
@@ -754,6 +742,15 @@
     <t>requestIdentifierCommon</t>
   </si>
   <si>
+    <t>External ids for this request</t>
+  </si>
+  <si>
+    <t>Identifiers associated with this medication request that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.</t>
+  </si>
+  <si>
+    <t>This is a business identifier, not a resource identifier.</t>
+  </si>
+  <si>
     <t>The namespace for the identifier value</t>
   </si>
   <si>
@@ -782,6 +779,9 @@
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/IdSystem/resourceInstance-identifier</t>
+  </si>
+  <si>
+    <t>@default</t>
   </si>
   <si>
     <t>MedicationRequest.status</t>
@@ -3725,10 +3725,10 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>81</v>
@@ -3831,17 +3831,15 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>168</v>
       </c>
+      <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>88</v>
@@ -3856,17 +3854,15 @@
         <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M14" t="s" s="2">
         <v>171</v>
       </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>81</v>
@@ -3915,50 +3911,50 @@
         <v>81</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>163</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>81</v>
@@ -3970,15 +3966,17 @@
         <v>81</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>81</v>
@@ -4015,31 +4013,31 @@
         <v>81</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>81</v>
@@ -4048,7 +4046,7 @@
         <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>81</v>
@@ -4059,41 +4057,43 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="O16" t="s" s="2">
         <v>81</v>
       </c>
@@ -4117,43 +4117,43 @@
         <v>81</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>181</v>
+        <v>81</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>81</v>
@@ -4162,18 +4162,18 @@
         <v>81</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>81</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4190,25 +4190,25 @@
         <v>81</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>108</v>
+        <v>190</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>81</v>
@@ -4233,13 +4233,13 @@
         <v>81</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>81</v>
@@ -4257,7 +4257,7 @@
         <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>79</v>
@@ -4278,18 +4278,18 @@
         <v>81</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>131</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>88</v>
@@ -4312,32 +4312,32 @@
         <v>89</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>194</v>
+        <v>102</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="R18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>81</v>
+        <v>206</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>81</v>
@@ -4349,13 +4349,13 @@
         <v>81</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>199</v>
+        <v>81</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>81</v>
@@ -4373,7 +4373,7 @@
         <v>81</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>79</v>
@@ -4394,18 +4394,18 @@
         <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4428,32 +4428,30 @@
         <v>89</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>209</v>
+        <v>81</v>
       </c>
       <c r="R19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>81</v>
@@ -4489,7 +4487,7 @@
         <v>81</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>79</v>
@@ -4510,18 +4508,18 @@
         <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4529,7 +4527,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>88</v>
@@ -4544,17 +4542,15 @@
         <v>89</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>81</v>
@@ -4567,7 +4563,7 @@
         <v>81</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>218</v>
+        <v>81</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>81</v>
@@ -4603,7 +4599,7 @@
         <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>79</v>
@@ -4624,18 +4620,18 @@
         <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4658,15 +4654,17 @@
         <v>89</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>81</v>
@@ -4715,7 +4713,7 @@
         <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>79</v>
@@ -4736,20 +4734,22 @@
         <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>81</v>
       </c>
@@ -4767,19 +4767,19 @@
         <v>81</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>230</v>
+        <v>153</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4829,13 +4829,13 @@
         <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>234</v>
+        <v>152</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>81</v>
@@ -4844,28 +4844,26 @@
         <v>100</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>236</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>81</v>
       </c>
@@ -4886,17 +4884,15 @@
         <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>81</v>
@@ -4945,50 +4941,50 @@
         <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>163</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>81</v>
@@ -5000,15 +4996,17 @@
         <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>81</v>
@@ -5045,31 +5043,31 @@
         <v>81</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>81</v>
@@ -5078,7 +5076,7 @@
         <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>81</v>
@@ -5089,41 +5087,43 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>81</v>
       </c>
@@ -5147,43 +5147,43 @@
         <v>81</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>181</v>
+        <v>81</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>81</v>
@@ -5192,18 +5192,18 @@
         <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>81</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5220,25 +5220,25 @@
         <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>108</v>
+        <v>190</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>81</v>
@@ -5263,13 +5263,13 @@
         <v>81</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>81</v>
@@ -5287,7 +5287,7 @@
         <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>79</v>
@@ -5308,18 +5308,18 @@
         <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>131</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5327,7 +5327,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>88</v>
@@ -5342,32 +5342,32 @@
         <v>89</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>194</v>
+        <v>102</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>195</v>
+        <v>237</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>81</v>
+        <v>239</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>81</v>
+        <v>206</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>81</v>
@@ -5379,13 +5379,13 @@
         <v>81</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>199</v>
+        <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>81</v>
@@ -5403,7 +5403,7 @@
         <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>79</v>
@@ -5424,18 +5424,18 @@
         <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5458,32 +5458,30 @@
         <v>89</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>240</v>
+        <v>81</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>81</v>
@@ -5519,7 +5517,7 @@
         <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>79</v>
@@ -5540,18 +5538,18 @@
         <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5559,7 +5557,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>88</v>
@@ -5574,17 +5572,15 @@
         <v>89</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>81</v>
@@ -5597,7 +5593,7 @@
         <v>81</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>218</v>
+        <v>81</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>81</v>
@@ -5633,7 +5629,7 @@
         <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>79</v>
@@ -5654,18 +5650,18 @@
         <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5688,15 +5684,17 @@
         <v>89</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>81</v>
@@ -5745,7 +5743,7 @@
         <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>79</v>
@@ -5766,20 +5764,22 @@
         <v>81</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="B31" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="C31" t="s" s="2">
         <v>81</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>79</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>81</v>
@@ -5797,19 +5797,19 @@
         <v>81</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>230</v>
+        <v>153</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5859,13 +5859,13 @@
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>234</v>
+        <v>152</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>81</v>
@@ -5874,28 +5874,26 @@
         <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>236</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
         <v>81</v>
       </c>
@@ -5904,7 +5902,7 @@
         <v>79</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>81</v>
@@ -5916,17 +5914,15 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>245</v>
+        <v>170</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>81</v>
@@ -5975,50 +5971,50 @@
         <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>163</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>81</v>
@@ -6030,15 +6026,17 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>81</v>
@@ -6075,31 +6073,31 @@
         <v>81</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>81</v>
@@ -6108,7 +6106,7 @@
         <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>81</v>
@@ -6119,41 +6117,43 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>81</v>
       </c>
@@ -6177,43 +6177,43 @@
         <v>81</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>181</v>
+        <v>81</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>81</v>
@@ -6222,18 +6222,18 @@
         <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>81</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6250,25 +6250,25 @@
         <v>81</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>108</v>
+        <v>190</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>81</v>
@@ -6293,13 +6293,13 @@
         <v>81</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>81</v>
@@ -6317,7 +6317,7 @@
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
@@ -6338,18 +6338,18 @@
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>131</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6357,7 +6357,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>88</v>
@@ -6372,32 +6372,32 @@
         <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>194</v>
+        <v>102</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>195</v>
+        <v>237</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>81</v>
+        <v>246</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>81</v>
+        <v>206</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>81</v>
@@ -6409,13 +6409,13 @@
         <v>81</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>199</v>
+        <v>81</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>81</v>
@@ -6433,7 +6433,7 @@
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -6454,18 +6454,18 @@
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6488,32 +6488,30 @@
         <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>247</v>
+        <v>81</v>
       </c>
       <c r="R37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>81</v>
@@ -6549,7 +6547,7 @@
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -6570,18 +6568,18 @@
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6589,7 +6587,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>88</v>
@@ -6604,17 +6602,15 @@
         <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>81</v>
@@ -6627,7 +6623,7 @@
         <v>81</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>218</v>
+        <v>81</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>81</v>
@@ -6663,7 +6659,7 @@
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
@@ -6684,18 +6680,18 @@
         <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6718,15 +6714,17 @@
         <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>81</v>
@@ -6775,7 +6773,7 @@
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
@@ -6796,20 +6794,22 @@
         <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="B40" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="C40" t="s" s="2">
         <v>81</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>79</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>81</v>
@@ -6827,19 +6827,19 @@
         <v>81</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>230</v>
+        <v>153</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6889,13 +6889,13 @@
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>234</v>
+        <v>152</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>81</v>
@@ -6904,19 +6904,19 @@
         <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>236</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41">
@@ -6979,7 +6979,7 @@
         <v>81</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="X41" t="s" s="2">
         <v>252</v>
@@ -7058,7 +7058,7 @@
         <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>259</v>
@@ -7207,7 +7207,7 @@
         <v>81</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="X43" t="s" s="2">
         <v>270</v>
@@ -7286,7 +7286,7 @@
         <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>276</v>
@@ -7433,7 +7433,7 @@
         <v>81</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="X45" t="s" s="2">
         <v>286</v>
@@ -8648,7 +8648,7 @@
         <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>367</v>
@@ -8874,7 +8874,7 @@
         <v>81</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>380</v>
@@ -9558,7 +9558,7 @@
         <v>81</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>420</v>
@@ -10126,7 +10126,7 @@
         <v>81</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>452</v>
@@ -10183,7 +10183,7 @@
         <v>81</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>79</v>
@@ -10204,7 +10204,7 @@
         <v>81</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>81</v>
@@ -10293,7 +10293,7 @@
         <v>137</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>79</v>
@@ -10407,7 +10407,7 @@
         <v>81</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>79</v>
@@ -10521,7 +10521,7 @@
         <v>81</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>79</v>
@@ -10806,13 +10806,13 @@
         <v>81</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10863,7 +10863,7 @@
         <v>81</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>79</v>
@@ -10884,7 +10884,7 @@
         <v>81</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>81</v>
@@ -10921,10 +10921,10 @@
         <v>133</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M76" t="s" s="2">
         <v>149</v>
@@ -10977,7 +10977,7 @@
         <v>81</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>79</v>
@@ -10998,7 +10998,7 @@
         <v>81</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>81</v>
@@ -11490,7 +11490,7 @@
         <v>81</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="K81" t="s" s="2">
         <v>493</v>
@@ -11606,13 +11606,13 @@
         <v>81</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11663,7 +11663,7 @@
         <v>81</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>79</v>
@@ -11684,7 +11684,7 @@
         <v>81</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>81</v>
@@ -11721,10 +11721,10 @@
         <v>133</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M83" t="s" s="2">
         <v>149</v>
@@ -11768,7 +11768,7 @@
         <v>136</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AC83" t="s" s="2">
         <v>81</v>
@@ -11777,7 +11777,7 @@
         <v>137</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>79</v>
@@ -11798,7 +11798,7 @@
         <v>81</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>81</v>
@@ -12404,13 +12404,13 @@
         <v>81</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12461,7 +12461,7 @@
         <v>81</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>79</v>
@@ -12482,7 +12482,7 @@
         <v>81</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>81</v>
@@ -12519,10 +12519,10 @@
         <v>133</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M90" t="s" s="2">
         <v>149</v>
@@ -12566,7 +12566,7 @@
         <v>136</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AC90" t="s" s="2">
         <v>81</v>
@@ -12575,7 +12575,7 @@
         <v>137</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>79</v>
@@ -12596,7 +12596,7 @@
         <v>81</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>81</v>
@@ -12783,7 +12783,7 @@
         <v>81</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="X92" t="s" s="2">
         <v>550</v>
@@ -12862,7 +12862,7 @@
         <v>89</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>556</v>
@@ -13432,13 +13432,13 @@
         <v>81</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -13489,7 +13489,7 @@
         <v>81</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>79</v>
@@ -13510,7 +13510,7 @@
         <v>81</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>81</v>
@@ -13547,10 +13547,10 @@
         <v>133</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M99" t="s" s="2">
         <v>149</v>
@@ -13603,7 +13603,7 @@
         <v>81</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>79</v>
@@ -13624,7 +13624,7 @@
         <v>81</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>81</v>
@@ -13774,7 +13774,7 @@
         <v>81</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K101" t="s" s="2">
         <v>585</v>
@@ -13886,7 +13886,7 @@
         <v>81</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K102" t="s" s="2">
         <v>599</v>

--- a/jpcore-r4/feature/v1.1.0-kohe-medReq/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/feature/v1.1.0-kohe-medReq/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3819" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3782" uniqueCount="626">
   <si>
     <t>Property</t>
   </si>
@@ -510,9 +510,6 @@
 </t>
   </si>
   <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>Request.identifier</t>
   </si>
   <si>
@@ -779,9 +776,6 @@
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/IdSystem/resourceInstance-identifier</t>
-  </si>
-  <si>
-    <t>@default</t>
   </si>
   <si>
     <t>MedicationRequest.status</t>
@@ -985,6 +979,9 @@
   <si>
     <t xml:space="preserve">type:$this}
 </t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t>Request.code</t>
@@ -2294,7 +2291,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN105"/>
+  <dimension ref="A1:AN104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3680,7 +3677,7 @@
         <v>81</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>152</v>
@@ -3698,19 +3695,19 @@
         <v>100</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>163</v>
       </c>
     </row>
     <row r="13">
@@ -3718,7 +3715,7 @@
         <v>152</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>81</v>
@@ -3743,13 +3740,13 @@
         <v>153</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3814,24 +3811,24 @@
         <v>100</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>163</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3854,13 +3851,13 @@
         <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3911,28 +3908,28 @@
         <v>81</v>
       </c>
       <c r="AE14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>81</v>
@@ -3943,7 +3940,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3969,10 +3966,10 @@
         <v>133</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
         <v>149</v>
@@ -4016,7 +4013,7 @@
         <v>136</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>81</v>
@@ -4025,7 +4022,7 @@
         <v>137</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>79</v>
@@ -4046,7 +4043,7 @@
         <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>81</v>
@@ -4057,7 +4054,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -4083,16 +4080,16 @@
         <v>108</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>81</v>
@@ -4117,31 +4114,31 @@
         <v>81</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="X16" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="X16" t="s" s="2">
+      <c r="Y16" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE16" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>79</v>
@@ -4162,7 +4159,7 @@
         <v>81</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>81</v>
@@ -4173,7 +4170,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4196,19 +4193,19 @@
         <v>89</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>81</v>
@@ -4233,31 +4230,31 @@
         <v>81</v>
       </c>
       <c r="W17" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="X17" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="X17" t="s" s="2">
+      <c r="Y17" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>79</v>
@@ -4278,18 +4275,18 @@
         <v>81</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4315,65 +4312,65 @@
         <v>102</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S18" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="R18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S18" t="s" s="2">
+      <c r="T18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="T18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>79</v>
@@ -4394,18 +4391,18 @@
         <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>209</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4428,16 +4425,16 @@
         <v>89</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4451,43 +4448,43 @@
         <v>81</v>
       </c>
       <c r="S19" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE19" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="T19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>79</v>
@@ -4508,18 +4505,18 @@
         <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>217</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4542,13 +4539,13 @@
         <v>89</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4599,7 +4596,7 @@
         <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>79</v>
@@ -4620,18 +4617,18 @@
         <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>224</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4654,16 +4651,16 @@
         <v>89</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4713,7 +4710,7 @@
         <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>79</v>
@@ -4734,13 +4731,13 @@
         <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>232</v>
       </c>
     </row>
     <row r="22">
@@ -4748,7 +4745,7 @@
         <v>152</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>81</v>
@@ -4773,13 +4770,13 @@
         <v>153</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4844,24 +4841,24 @@
         <v>100</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>163</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4884,13 +4881,13 @@
         <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4941,28 +4938,28 @@
         <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>81</v>
@@ -4973,7 +4970,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4999,10 +4996,10 @@
         <v>133</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>149</v>
@@ -5046,7 +5043,7 @@
         <v>136</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>81</v>
@@ -5055,7 +5052,7 @@
         <v>137</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>79</v>
@@ -5076,7 +5073,7 @@
         <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>81</v>
@@ -5087,7 +5084,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5113,16 +5110,16 @@
         <v>108</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>81</v>
@@ -5147,31 +5144,31 @@
         <v>81</v>
       </c>
       <c r="W25" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="X25" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="X25" t="s" s="2">
+      <c r="Y25" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE25" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>79</v>
@@ -5192,7 +5189,7 @@
         <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>81</v>
@@ -5203,7 +5200,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5226,19 +5223,19 @@
         <v>89</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>81</v>
@@ -5263,31 +5260,31 @@
         <v>81</v>
       </c>
       <c r="W26" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="X26" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="X26" t="s" s="2">
+      <c r="Y26" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="Y26" t="s" s="2">
+      <c r="Z26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>79</v>
@@ -5308,18 +5305,18 @@
         <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5345,65 +5342,65 @@
         <v>102</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>238</v>
-      </c>
       <c r="M27" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="S27" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>79</v>
@@ -5424,18 +5421,18 @@
         <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>209</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5458,16 +5455,16 @@
         <v>89</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5481,43 +5478,43 @@
         <v>81</v>
       </c>
       <c r="S28" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>79</v>
@@ -5538,18 +5535,18 @@
         <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>217</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5572,13 +5569,13 @@
         <v>89</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5629,7 +5626,7 @@
         <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>79</v>
@@ -5650,18 +5647,18 @@
         <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>224</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5684,16 +5681,16 @@
         <v>89</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5743,7 +5740,7 @@
         <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>79</v>
@@ -5764,13 +5761,13 @@
         <v>81</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>232</v>
       </c>
     </row>
     <row r="31">
@@ -5778,7 +5775,7 @@
         <v>152</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>81</v>
@@ -5803,13 +5800,13 @@
         <v>153</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L31" t="s" s="2">
-        <v>245</v>
-      </c>
       <c r="M31" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5874,24 +5871,24 @@
         <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>163</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5914,13 +5911,13 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5971,28 +5968,28 @@
         <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>81</v>
@@ -6003,7 +6000,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6029,10 +6026,10 @@
         <v>133</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>149</v>
@@ -6076,7 +6073,7 @@
         <v>136</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>81</v>
@@ -6085,7 +6082,7 @@
         <v>137</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
@@ -6106,7 +6103,7 @@
         <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>81</v>
@@ -6117,7 +6114,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6143,16 +6140,16 @@
         <v>108</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>81</v>
@@ -6177,31 +6174,31 @@
         <v>81</v>
       </c>
       <c r="W34" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="X34" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="X34" t="s" s="2">
+      <c r="Y34" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="Y34" t="s" s="2">
+      <c r="Z34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE34" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
@@ -6222,7 +6219,7 @@
         <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>81</v>
@@ -6233,7 +6230,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6256,19 +6253,19 @@
         <v>89</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>81</v>
@@ -6293,31 +6290,31 @@
         <v>81</v>
       </c>
       <c r="W35" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="X35" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="X35" t="s" s="2">
+      <c r="Y35" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="Y35" t="s" s="2">
+      <c r="Z35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE35" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
@@ -6338,18 +6335,18 @@
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6375,65 +6372,65 @@
         <v>102</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>238</v>
-      </c>
       <c r="M36" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="S36" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE36" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -6454,18 +6451,18 @@
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>209</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6488,16 +6485,16 @@
         <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6511,43 +6508,43 @@
         <v>81</v>
       </c>
       <c r="S37" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE37" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -6568,18 +6565,18 @@
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>217</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6602,13 +6599,13 @@
         <v>89</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6659,7 +6656,7 @@
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
@@ -6680,18 +6677,18 @@
         <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>224</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6714,16 +6711,16 @@
         <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6773,7 +6770,7 @@
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
@@ -6794,52 +6791,50 @@
         <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>232</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6865,13 +6860,13 @@
         <v>81</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>81</v>
+        <v>250</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>81</v>
@@ -6889,13 +6884,13 @@
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>152</v>
+        <v>246</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>81</v>
@@ -6904,24 +6899,24 @@
         <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>159</v>
+        <v>252</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>160</v>
+        <v>253</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>161</v>
+        <v>254</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>162</v>
+        <v>255</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>163</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6929,7 +6924,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>88</v>
@@ -6938,22 +6933,22 @@
         <v>81</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6979,13 +6974,13 @@
         <v>81</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>184</v>
+        <v>259</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>81</v>
@@ -7003,10 +6998,10 @@
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>88</v>
@@ -7018,16 +7013,16 @@
         <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>255</v>
+        <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>257</v>
+        <v>81</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -7035,7 +7030,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7043,7 +7038,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>88</v>
@@ -7052,22 +7047,22 @@
         <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>190</v>
+        <v>108</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7093,13 +7088,13 @@
         <v>81</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>261</v>
+        <v>183</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>81</v>
@@ -7117,10 +7112,10 @@
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>88</v>
@@ -7132,16 +7127,16 @@
         <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>81</v>
+        <v>272</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -7149,7 +7144,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7157,31 +7152,31 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7207,13 +7202,11 @@
         <v>81</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>81</v>
@@ -7231,13 +7224,13 @@
         <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>81</v>
@@ -7246,16 +7239,16 @@
         <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -7263,7 +7256,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7274,7 +7267,7 @@
         <v>79</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>81</v>
@@ -7283,19 +7276,19 @@
         <v>81</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>190</v>
+        <v>108</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7321,11 +7314,13 @@
         <v>81</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="X44" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="Y44" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>81</v>
@@ -7343,13 +7338,13 @@
         <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>81</v>
@@ -7358,16 +7353,16 @@
         <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>280</v>
+        <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -7375,7 +7370,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7392,22 +7387,22 @@
         <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>108</v>
+        <v>290</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7433,13 +7428,13 @@
         <v>81</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>286</v>
+        <v>81</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>287</v>
+        <v>81</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>81</v>
@@ -7457,7 +7452,7 @@
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
@@ -7472,16 +7467,16 @@
         <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>288</v>
+        <v>81</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>290</v>
+        <v>81</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7489,7 +7484,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7506,23 +7501,21 @@
         <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>81</v>
@@ -7571,7 +7564,7 @@
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7592,7 +7585,7 @@
         <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>81</v>
@@ -7603,7 +7596,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7611,7 +7604,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>88</v>
@@ -7626,15 +7619,17 @@
         <v>89</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>81</v>
@@ -7671,22 +7666,20 @@
         <v>81</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="AB47" s="2"/>
       <c r="AC47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>81</v>
+        <v>306</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>88</v>
@@ -7698,26 +7691,28 @@
         <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>81</v>
+        <v>307</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>81</v>
+        <v>308</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>81</v>
+        <v>310</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>81</v>
+        <v>311</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="B48" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="C48" t="s" s="2">
         <v>81</v>
       </c>
@@ -7738,16 +7733,16 @@
         <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7785,17 +7780,19 @@
         <v>81</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AB48" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AC48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>158</v>
+        <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>88</v>
@@ -7810,28 +7807,26 @@
         <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AL48" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>312</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
         <v>81</v>
       </c>
@@ -7852,16 +7847,16 @@
         <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7911,7 +7906,7 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>88</v>
@@ -7926,24 +7921,24 @@
         <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>312</v>
+        <v>326</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7951,7 +7946,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>88</v>
@@ -7963,19 +7958,19 @@
         <v>81</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -8025,10 +8020,10 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>88</v>
@@ -8040,24 +8035,24 @@
         <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>324</v>
+        <v>253</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8068,7 +8063,7 @@
         <v>79</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>81</v>
@@ -8080,16 +8075,16 @@
         <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -8139,13 +8134,13 @@
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>81</v>
@@ -8154,24 +8149,24 @@
         <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>255</v>
+        <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AM51" t="s" s="2">
-        <v>335</v>
-      </c>
       <c r="AN51" t="s" s="2">
-        <v>336</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8179,10 +8174,10 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>81</v>
@@ -8191,20 +8186,18 @@
         <v>81</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>81</v>
@@ -8253,13 +8246,13 @@
         <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>81</v>
@@ -8268,24 +8261,24 @@
         <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>81</v>
+        <v>348</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>81</v>
+        <v>351</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8293,7 +8286,7 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>88</v>
@@ -8308,15 +8301,17 @@
         <v>89</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>81</v>
@@ -8365,7 +8360,7 @@
         <v>81</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>79</v>
@@ -8380,24 +8375,24 @@
         <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>349</v>
+        <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>352</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8417,19 +8412,19 @@
         <v>81</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8479,7 +8474,7 @@
         <v>81</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>79</v>
@@ -8494,16 +8489,16 @@
         <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
@@ -8511,7 +8506,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8531,19 +8526,19 @@
         <v>81</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>360</v>
+        <v>189</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8569,13 +8564,11 @@
         <v>81</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>81</v>
+        <v>369</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>81</v>
@@ -8593,7 +8586,7 @@
         <v>81</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>79</v>
@@ -8608,16 +8601,16 @@
         <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>365</v>
+        <v>81</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>81</v>
@@ -8625,7 +8618,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8645,19 +8638,19 @@
         <v>81</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>190</v>
+        <v>373</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8683,11 +8676,13 @@
         <v>81</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="X56" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Y56" t="s" s="2">
-        <v>370</v>
+        <v>81</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>81</v>
@@ -8705,7 +8700,7 @@
         <v>81</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>79</v>
@@ -8720,16 +8715,16 @@
         <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>371</v>
+        <v>81</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>81</v>
+        <v>377</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>81</v>
@@ -8737,7 +8732,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8748,7 +8743,7 @@
         <v>79</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>81</v>
@@ -8760,16 +8755,16 @@
         <v>81</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>374</v>
+        <v>189</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8795,13 +8790,13 @@
         <v>81</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>81</v>
+        <v>259</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>81</v>
+        <v>382</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>81</v>
+        <v>383</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>81</v>
@@ -8819,13 +8814,13 @@
         <v>81</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>81</v>
@@ -8834,24 +8829,24 @@
         <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>81</v>
+        <v>384</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>81</v>
+        <v>385</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>81</v>
+        <v>388</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8874,16 +8869,16 @@
         <v>81</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>190</v>
+        <v>390</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8909,13 +8904,13 @@
         <v>81</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>261</v>
+        <v>81</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>383</v>
+        <v>81</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>384</v>
+        <v>81</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>81</v>
@@ -8933,7 +8928,7 @@
         <v>81</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>79</v>
@@ -8948,24 +8943,24 @@
         <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>386</v>
+        <v>253</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AM58" t="s" s="2">
-        <v>388</v>
-      </c>
       <c r="AN58" t="s" s="2">
-        <v>389</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8985,19 +8980,19 @@
         <v>81</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9047,7 +9042,7 @@
         <v>81</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>79</v>
@@ -9062,16 +9057,16 @@
         <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>255</v>
+        <v>81</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>388</v>
+        <v>81</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>81</v>
@@ -9079,7 +9074,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9102,16 +9097,16 @@
         <v>89</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>398</v>
+        <v>102</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="L60" t="s" s="2">
-        <v>400</v>
-      </c>
       <c r="M60" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -9161,7 +9156,7 @@
         <v>81</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>79</v>
@@ -9176,13 +9171,13 @@
         <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>81</v>
@@ -9193,7 +9188,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9216,16 +9211,16 @@
         <v>89</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>102</v>
+        <v>407</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>406</v>
+        <v>340</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9275,7 +9270,7 @@
         <v>81</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>79</v>
@@ -9290,13 +9285,13 @@
         <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>81</v>
+        <v>410</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>81</v>
@@ -9307,7 +9302,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9318,7 +9313,7 @@
         <v>79</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>81</v>
@@ -9330,18 +9325,18 @@
         <v>89</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>408</v>
+        <v>153</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>81</v>
       </c>
@@ -9389,13 +9384,13 @@
         <v>81</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>81</v>
@@ -9404,13 +9399,13 @@
         <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>81</v>
@@ -9421,7 +9416,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9441,21 +9436,21 @@
         <v>81</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>81</v>
       </c>
@@ -9479,13 +9474,13 @@
         <v>81</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>81</v>
+        <v>259</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>81</v>
+        <v>422</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>81</v>
+        <v>423</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>81</v>
@@ -9503,7 +9498,7 @@
         <v>81</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>79</v>
@@ -9518,13 +9513,13 @@
         <v>100</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>417</v>
+        <v>81</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>81</v>
@@ -9535,7 +9530,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9546,7 +9541,7 @@
         <v>79</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>81</v>
@@ -9558,16 +9553,16 @@
         <v>81</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>190</v>
+        <v>426</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>422</v>
+        <v>340</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9593,13 +9588,13 @@
         <v>81</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>261</v>
+        <v>81</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>423</v>
+        <v>81</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>424</v>
+        <v>81</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>81</v>
@@ -9617,13 +9612,13 @@
         <v>81</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>81</v>
@@ -9632,13 +9627,13 @@
         <v>100</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>81</v>
+        <v>429</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>81</v>
@@ -9649,7 +9644,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9672,16 +9667,16 @@
         <v>81</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>341</v>
+        <v>435</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9731,7 +9726,7 @@
         <v>81</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>79</v>
@@ -9746,13 +9741,13 @@
         <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>81</v>
+        <v>437</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>81</v>
@@ -9763,7 +9758,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9786,16 +9781,16 @@
         <v>81</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9845,7 +9840,7 @@
         <v>81</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>79</v>
@@ -9860,13 +9855,13 @@
         <v>100</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>437</v>
+        <v>81</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>438</v>
+        <v>81</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>81</v>
@@ -9877,7 +9872,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9888,7 +9883,7 @@
         <v>79</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>81</v>
@@ -9900,17 +9895,15 @@
         <v>81</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>443</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>81</v>
@@ -9959,13 +9952,13 @@
         <v>81</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>81</v>
@@ -9977,10 +9970,10 @@
         <v>81</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>81</v>
+        <v>448</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>81</v>
@@ -9991,7 +9984,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10014,13 +10007,13 @@
         <v>81</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>446</v>
+        <v>168</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -10071,7 +10064,7 @@
         <v>81</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>445</v>
+        <v>171</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>79</v>
@@ -10083,16 +10076,16 @@
         <v>81</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>449</v>
+        <v>81</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>450</v>
+        <v>172</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>81</v>
@@ -10103,7 +10096,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10114,7 +10107,7 @@
         <v>79</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>81</v>
@@ -10126,13 +10119,13 @@
         <v>81</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>452</v>
+        <v>134</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>453</v>
+        <v>135</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -10171,31 +10164,29 @@
         <v>81</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AB69" s="2"/>
       <c r="AC69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>81</v>
@@ -10204,7 +10195,7 @@
         <v>81</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>81</v>
@@ -10215,9 +10206,11 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B70" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
         <v>81</v>
       </c>
@@ -10238,13 +10231,13 @@
         <v>81</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>133</v>
+        <v>455</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>134</v>
+        <v>456</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>135</v>
+        <v>457</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10283,17 +10276,19 @@
         <v>81</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AB70" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AC70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD70" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>79</v>
@@ -10302,7 +10297,7 @@
         <v>80</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>139</v>
@@ -10325,10 +10320,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C71" t="s" s="2">
         <v>81</v>
@@ -10338,7 +10333,7 @@
         <v>79</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>81</v>
@@ -10350,13 +10345,13 @@
         <v>81</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10407,7 +10402,7 @@
         <v>81</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>79</v>
@@ -10439,41 +10434,43 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>459</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>81</v>
+        <v>463</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>460</v>
+        <v>133</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>81</v>
       </c>
@@ -10521,7 +10518,7 @@
         <v>81</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>178</v>
+        <v>466</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>79</v>
@@ -10530,7 +10527,7 @@
         <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>139</v>
@@ -10542,7 +10539,7 @@
         <v>81</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>81</v>
@@ -10553,43 +10550,41 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>464</v>
+        <v>81</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>133</v>
+        <v>445</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>81</v>
       </c>
@@ -10643,13 +10638,13 @@
         <v>79</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>81</v>
@@ -10658,7 +10653,7 @@
         <v>81</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>131</v>
+        <v>471</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>81</v>
@@ -10669,7 +10664,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10692,17 +10687,15 @@
         <v>81</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>446</v>
+        <v>168</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>469</v>
+        <v>169</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>81</v>
@@ -10751,7 +10744,7 @@
         <v>81</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>468</v>
+        <v>171</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>79</v>
@@ -10763,7 +10756,7 @@
         <v>81</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>81</v>
@@ -10772,7 +10765,7 @@
         <v>81</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>472</v>
+        <v>172</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>81</v>
@@ -10787,14 +10780,14 @@
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>81</v>
@@ -10806,15 +10799,17 @@
         <v>81</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M75" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>81</v>
@@ -10863,28 +10858,28 @@
         <v>81</v>
       </c>
       <c r="AE75" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL75" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>81</v>
@@ -10899,7 +10894,7 @@
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>146</v>
+        <v>463</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10912,24 +10907,26 @@
         <v>81</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J76" t="s" s="2">
         <v>133</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>175</v>
+        <v>464</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>176</v>
+        <v>465</v>
       </c>
       <c r="M76" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N76" s="2"/>
+      <c r="N76" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>81</v>
       </c>
@@ -10977,7 +10974,7 @@
         <v>81</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>178</v>
+        <v>466</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>79</v>
@@ -10998,7 +10995,7 @@
         <v>81</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>81</v>
@@ -11013,39 +11010,37 @@
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>464</v>
+        <v>81</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>133</v>
+        <v>476</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>81</v>
       </c>
@@ -11093,19 +11088,19 @@
         <v>81</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>139</v>
+        <v>480</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>81</v>
@@ -11114,18 +11109,18 @@
         <v>81</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>131</v>
+        <v>481</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>81</v>
+        <v>482</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11148,16 +11143,16 @@
         <v>81</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11207,7 +11202,7 @@
         <v>81</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>79</v>
@@ -11216,10 +11211,10 @@
         <v>88</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>481</v>
+        <v>100</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>81</v>
@@ -11228,18 +11223,18 @@
         <v>81</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>483</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11262,16 +11257,16 @@
         <v>81</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -11321,7 +11316,7 @@
         <v>81</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>79</v>
@@ -11342,7 +11337,7 @@
         <v>81</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>81</v>
@@ -11353,7 +11348,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11376,18 +11371,20 @@
         <v>81</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>485</v>
+        <v>218</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>494</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>495</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>81</v>
       </c>
@@ -11435,7 +11432,7 @@
         <v>81</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>79</v>
@@ -11453,10 +11450,10 @@
         <v>81</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>81</v>
+        <v>496</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>81</v>
@@ -11467,7 +11464,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11490,20 +11487,16 @@
         <v>81</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>493</v>
+        <v>169</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>496</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>81</v>
       </c>
@@ -11551,7 +11544,7 @@
         <v>81</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>492</v>
+        <v>171</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>79</v>
@@ -11563,16 +11556,16 @@
         <v>81</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>497</v>
+        <v>81</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>498</v>
+        <v>172</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>81</v>
@@ -11587,14 +11580,14 @@
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>81</v>
@@ -11606,15 +11599,17 @@
         <v>81</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M82" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>81</v>
@@ -11651,40 +11646,40 @@
         <v>81</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="AC82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE82" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL82" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>81</v>
@@ -11699,14 +11694,14 @@
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>81</v>
@@ -11715,19 +11710,19 @@
         <v>81</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>133</v>
+        <v>344</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>175</v>
+        <v>501</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>176</v>
+        <v>502</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>149</v>
+        <v>503</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11765,31 +11760,31 @@
         <v>81</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>177</v>
+        <v>81</v>
       </c>
       <c r="AC83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD83" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>178</v>
+        <v>504</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>81</v>
+        <v>505</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>81</v>
@@ -11798,18 +11793,18 @@
         <v>81</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>173</v>
+        <v>506</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>81</v>
+        <v>507</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11832,22 +11827,24 @@
         <v>89</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="P84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>512</v>
+      </c>
       <c r="Q84" t="s" s="2">
         <v>81</v>
       </c>
@@ -11891,16 +11888,16 @@
         <v>81</v>
       </c>
       <c r="AE84" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH84" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>100</v>
@@ -11912,18 +11909,18 @@
         <v>81</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>508</v>
+        <v>515</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11943,27 +11940,25 @@
         <v>81</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>345</v>
+        <v>517</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="P85" t="s" s="2">
-        <v>513</v>
-      </c>
+      <c r="P85" s="2"/>
       <c r="Q85" t="s" s="2">
         <v>81</v>
       </c>
@@ -12007,7 +12002,7 @@
         <v>81</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>79</v>
@@ -12016,7 +12011,7 @@
         <v>88</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>506</v>
+        <v>81</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>100</v>
@@ -12025,21 +12020,21 @@
         <v>81</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>81</v>
+        <v>521</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>516</v>
+        <v>523</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12062,16 +12057,16 @@
         <v>81</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>518</v>
+        <v>476</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>521</v>
+        <v>479</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -12121,7 +12116,7 @@
         <v>81</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>79</v>
@@ -12130,30 +12125,30 @@
         <v>88</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>100</v>
+        <v>480</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>522</v>
+        <v>81</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>523</v>
+        <v>481</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>524</v>
+        <v>482</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12176,16 +12171,16 @@
         <v>81</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>480</v>
+        <v>530</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -12235,7 +12230,7 @@
         <v>81</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>79</v>
@@ -12244,30 +12239,30 @@
         <v>88</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>481</v>
+        <v>100</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>81</v>
+        <v>531</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>482</v>
+        <v>532</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>483</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12290,17 +12285,15 @@
         <v>81</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>485</v>
+        <v>168</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>529</v>
+        <v>169</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>531</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>81</v>
@@ -12349,7 +12342,7 @@
         <v>81</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>528</v>
+        <v>171</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>79</v>
@@ -12361,16 +12354,16 @@
         <v>81</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>532</v>
+        <v>81</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>533</v>
+        <v>172</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>81</v>
@@ -12385,14 +12378,14 @@
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>81</v>
@@ -12404,15 +12397,17 @@
         <v>81</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M89" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>81</v>
@@ -12449,40 +12444,40 @@
         <v>81</v>
       </c>
       <c r="AA89" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="AC89" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD89" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="AE89" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL89" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>81</v>
@@ -12497,14 +12492,14 @@
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>81</v>
@@ -12513,21 +12508,23 @@
         <v>81</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>133</v>
+        <v>536</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>175</v>
+        <v>537</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>176</v>
+        <v>538</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N90" s="2"/>
+        <v>539</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>540</v>
+      </c>
       <c r="O90" t="s" s="2">
         <v>81</v>
       </c>
@@ -12563,31 +12560,31 @@
         <v>81</v>
       </c>
       <c r="AA90" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>177</v>
+        <v>81</v>
       </c>
       <c r="AC90" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD90" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>178</v>
+        <v>541</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>81</v>
@@ -12596,18 +12593,18 @@
         <v>81</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>173</v>
+        <v>542</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>81</v>
+        <v>543</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12624,30 +12621,30 @@
         <v>81</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>537</v>
+        <v>108</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>540</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="M91" s="2"/>
       <c r="N91" t="s" s="2">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="P91" s="2"/>
+      <c r="P91" t="s" s="2">
+        <v>548</v>
+      </c>
       <c r="Q91" t="s" s="2">
         <v>81</v>
       </c>
@@ -12667,13 +12664,13 @@
         <v>81</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>81</v>
+        <v>549</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>81</v>
+        <v>550</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>81</v>
@@ -12691,7 +12688,7 @@
         <v>81</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>79</v>
@@ -12712,18 +12709,18 @@
         <v>81</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>544</v>
+        <v>553</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12740,32 +12737,30 @@
         <v>81</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" t="s" s="2">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="P92" t="s" s="2">
-        <v>549</v>
-      </c>
+      <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
-        <v>81</v>
+        <v>558</v>
       </c>
       <c r="R92" t="s" s="2">
         <v>81</v>
@@ -12783,13 +12778,13 @@
         <v>81</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>550</v>
+        <v>81</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>551</v>
+        <v>81</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>81</v>
@@ -12807,7 +12802,7 @@
         <v>81</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>79</v>
@@ -12828,18 +12823,18 @@
         <v>81</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>554</v>
+        <v>561</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12862,24 +12857,24 @@
         <v>89</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" t="s" s="2">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P93" s="2"/>
       <c r="Q93" t="s" s="2">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="R93" t="s" s="2">
         <v>81</v>
@@ -12921,7 +12916,7 @@
         <v>81</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>79</v>
@@ -12930,7 +12925,7 @@
         <v>88</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>81</v>
+        <v>568</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>100</v>
@@ -12942,18 +12937,18 @@
         <v>81</v>
       </c>
       <c r="AL93" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN93" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>562</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12976,24 +12971,26 @@
         <v>89</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="M94" s="2"/>
+        <v>572</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>573</v>
+      </c>
       <c r="N94" t="s" s="2">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P94" s="2"/>
       <c r="Q94" t="s" s="2">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="R94" t="s" s="2">
         <v>81</v>
@@ -13035,7 +13032,7 @@
         <v>81</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>79</v>
@@ -13044,7 +13041,7 @@
         <v>88</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>569</v>
+        <v>81</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>100</v>
@@ -13056,18 +13053,18 @@
         <v>81</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13087,29 +13084,27 @@
         <v>81</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>108</v>
+        <v>579</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>575</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P95" s="2"/>
       <c r="Q95" t="s" s="2">
-        <v>576</v>
+        <v>81</v>
       </c>
       <c r="R95" t="s" s="2">
         <v>81</v>
@@ -13151,7 +13146,7 @@
         <v>81</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>79</v>
@@ -13172,18 +13167,18 @@
         <v>81</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>81</v>
+        <v>377</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>562</v>
+        <v>81</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13206,17 +13201,15 @@
         <v>81</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>580</v>
+        <v>445</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>585</v>
+      </c>
+      <c r="M96" s="2"/>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>81</v>
@@ -13265,7 +13258,7 @@
         <v>81</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>79</v>
@@ -13283,13 +13276,13 @@
         <v>81</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>81</v>
+        <v>586</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>378</v>
+        <v>81</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>81</v>
@@ -13297,7 +13290,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13320,13 +13313,13 @@
         <v>81</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>446</v>
+        <v>168</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>585</v>
+        <v>169</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>586</v>
+        <v>170</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -13377,7 +13370,7 @@
         <v>81</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>584</v>
+        <v>171</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>79</v>
@@ -13389,16 +13382,16 @@
         <v>81</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>587</v>
+        <v>81</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>588</v>
+        <v>172</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>81</v>
@@ -13413,14 +13406,14 @@
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>81</v>
@@ -13432,15 +13425,17 @@
         <v>81</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M98" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>81</v>
@@ -13489,28 +13484,28 @@
         <v>81</v>
       </c>
       <c r="AE98" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL98" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>81</v>
@@ -13525,7 +13520,7 @@
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>146</v>
+        <v>463</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -13538,24 +13533,26 @@
         <v>81</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J99" t="s" s="2">
         <v>133</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>175</v>
+        <v>464</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>176</v>
+        <v>465</v>
       </c>
       <c r="M99" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="N99" s="2"/>
+      <c r="N99" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O99" t="s" s="2">
         <v>81</v>
       </c>
@@ -13603,7 +13600,7 @@
         <v>81</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>178</v>
+        <v>466</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>79</v>
@@ -13624,7 +13621,7 @@
         <v>81</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>81</v>
@@ -13639,39 +13636,37 @@
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>464</v>
+        <v>81</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>133</v>
+        <v>189</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>465</v>
+        <v>584</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>466</v>
+        <v>592</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>81</v>
       </c>
@@ -13695,13 +13690,11 @@
         <v>81</v>
       </c>
       <c r="W100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="X100" s="2"/>
       <c r="Y100" t="s" s="2">
-        <v>81</v>
+        <v>594</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>81</v>
@@ -13719,39 +13712,39 @@
         <v>81</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>467</v>
+        <v>591</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>81</v>
+        <v>586</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>131</v>
+        <v>595</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>81</v>
+        <v>596</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13759,7 +13752,7 @@
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F101" t="s" s="2">
         <v>88</v>
@@ -13774,16 +13767,16 @@
         <v>81</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -13809,11 +13802,13 @@
         <v>81</v>
       </c>
       <c r="W101" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="X101" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>601</v>
+      </c>
       <c r="Y101" t="s" s="2">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="Z101" t="s" s="2">
         <v>81</v>
@@ -13831,10 +13826,10 @@
         <v>81</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>88</v>
@@ -13849,21 +13844,21 @@
         <v>81</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>587</v>
+        <v>603</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13886,16 +13881,16 @@
         <v>81</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>190</v>
+        <v>607</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>601</v>
+        <v>340</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
@@ -13921,13 +13916,13 @@
         <v>81</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>261</v>
+        <v>81</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>602</v>
+        <v>81</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>603</v>
+        <v>81</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>81</v>
@@ -13945,7 +13940,7 @@
         <v>81</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>79</v>
@@ -13960,35 +13955,35 @@
         <v>100</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>81</v>
+        <v>610</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>606</v>
+        <v>81</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>81</v>
+        <v>613</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>81</v>
@@ -14000,16 +13995,16 @@
         <v>81</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>341</v>
+        <v>617</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
@@ -14059,13 +14054,13 @@
         <v>81</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>81</v>
@@ -14074,13 +14069,13 @@
         <v>100</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>611</v>
+        <v>81</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>604</v>
+        <v>81</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>81</v>
@@ -14091,11 +14086,11 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>614</v>
+        <v>81</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -14114,16 +14109,16 @@
         <v>81</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
@@ -14173,7 +14168,7 @@
         <v>81</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>79</v>
@@ -14188,132 +14183,18 @@
         <v>100</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>81</v>
+        <v>624</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="B105" s="2"/>
-      <c r="C105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="D105" s="2"/>
-      <c r="E105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="N105" s="2"/>
-      <c r="O105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="P105" s="2"/>
-      <c r="Q105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="R105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN105" t="s" s="2">
         <v>81</v>
       </c>
     </row>

--- a/jpcore-r4/feature/v1.1.0-kohe-medReq/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/feature/v1.1.0-kohe-medReq/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -739,10 +739,10 @@
     <t>requestIdentifierCommon</t>
   </si>
   <si>
-    <t>External ids for this request</t>
-  </si>
-  <si>
-    <t>Identifiers associated with this medication request that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.</t>
+    <t>処方箋に対するID</t>
+  </si>
+  <si>
+    <t>薬剤をオーダする単位としての処方箋に対するID。MedicationRequestは単一の薬剤でインスタンスが作成されるが、それの集合としての処方箋のID。system 要素には、保険医療機関番号を含む処方箋ID（urn:oid:1.2.392.100495.20.3.11.1[保険医療機関コード(10 桁)]）を指定する。全国で⼀意になる発番ルールにもとづく場合には urn:oid:1.2.392.100495.20.3.11 とする。</t>
   </si>
   <si>
     <t>This is a business identifier, not a resource identifier.</t>
@@ -772,7 +772,7 @@
     <t>処方オーダに対するID</t>
   </si>
   <si>
-    <t>薬剤をオーダする単位としての処方箋に対するID。MedicationRequestは単一の薬剤でインスタンスが作成されるが、それの集合としての処方箋のID。</t>
+    <t>薬剤をオーダする単位としての処方依頼に対するID。MedicationRequestは単一の薬剤でインスタンスが作成される。</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/IdSystem/resourceInstance-identifier</t>

--- a/jpcore-r4/feature/v1.1.0-kohe-medReq/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/feature/v1.1.0-kohe-medReq/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
